--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522362.1855079017</v>
+        <v>-524957.6253800386</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>1.690540532109992</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>337.2823935925515</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.3897856971973</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>169.9738082135694</v>
+        <v>127.2748517142196</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>190.7028065931544</v>
+        <v>134.8338500311188</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>106.876723545123</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>157.4452852874467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>325.2596006573747</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>143.3574269446598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>2.308866464337939</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.32369167158488</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>228.0286213278505</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>86.09789039964318</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>88.92406475355295</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656052</v>
       </c>
     </row>
     <row r="21">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>149.9095691544925</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>845.8055914865827</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C2" t="n">
-        <v>844.0979747874817</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="D2" t="n">
-        <v>844.0979747874817</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="E2" t="n">
-        <v>458.3097221892374</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="F2" t="n">
-        <v>458.3097221892374</v>
+        <v>707.4562826716615</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>291.7515323959503</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,7 +4328,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X2" t="n">
-        <v>1622.544763526516</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y2" t="n">
-        <v>1232.405431550704</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1444.105910816297</v>
+        <v>1739.734756450701</v>
       </c>
       <c r="C4" t="n">
-        <v>1275.16972788839</v>
+        <v>1570.798573522794</v>
       </c>
       <c r="D4" t="n">
-        <v>1125.053088476054</v>
+        <v>1420.681934110459</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936612</v>
+        <v>1272.768840528066</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4492,7 +4492,7 @@
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4513,25 +4513,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2390.648613032914</v>
+        <v>2433.778872123166</v>
       </c>
       <c r="T4" t="n">
-        <v>2390.648613032914</v>
+        <v>2210.800391317901</v>
       </c>
       <c r="U4" t="n">
-        <v>2390.648613032914</v>
+        <v>2210.800391317901</v>
       </c>
       <c r="V4" t="n">
-        <v>2135.964124827027</v>
+        <v>2210.800391317901</v>
       </c>
       <c r="W4" t="n">
-        <v>1846.546954790066</v>
+        <v>1921.383221280941</v>
       </c>
       <c r="X4" t="n">
-        <v>1846.546954790066</v>
+        <v>1921.383221280941</v>
       </c>
       <c r="Y4" t="n">
-        <v>1625.754375646536</v>
+        <v>1921.383221280941</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.28938929556</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="C5" t="n">
-        <v>1465.28938929556</v>
+        <v>1004.815695798554</v>
       </c>
       <c r="D5" t="n">
-        <v>1107.023690688809</v>
+        <v>646.5499971918036</v>
       </c>
       <c r="E5" t="n">
-        <v>721.2354380905651</v>
+        <v>260.7617445935594</v>
       </c>
       <c r="F5" t="n">
-        <v>310.2495333009576</v>
+        <v>253.8162438443559</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.428721271372</v>
+        <v>1373.778212738966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.28938929556</v>
+        <v>1373.778212738966</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429752</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.9376744406312</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C7" t="n">
-        <v>473.0014915127243</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1229.277679340725</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1229.277679340725</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>974.5931911348382</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288653</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="X7" t="n">
-        <v>862.7302535841613</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.9376744406312</v>
+        <v>685.1760210978775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1647.321240915451</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2037.460572891262</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1647.321240915451</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1924.962359740677</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1733.276475567503</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1511.509860137029</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1222.406993262673</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1222.406993262673</v>
       </c>
       <c r="W10" t="n">
-        <v>825.3518203322459</v>
+        <v>932.9898232257123</v>
       </c>
       <c r="X10" t="n">
-        <v>825.3518203322459</v>
+        <v>932.9898232257123</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082686</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.174843522903</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.490355317016</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.073185280056</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.083634382038</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.2910552385083</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2359.995517520015</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1419.02150088521</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1021.293348608258</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>852.3571656803509</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>702.2405262680152</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>554.3274326856221</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F19" t="n">
-        <v>407.4374851877117</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.941813438498</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5795,7 +5795,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>380.8823046593499</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>213.6862053742298</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,61 +6452,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,7 +7637,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7786,19 +7786,19 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566558</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241554</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>363.5823512388976</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>128.6287668652081</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.16425648007281</v>
       </c>
     </row>
     <row r="3">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>24.68865214816802</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922734</v>
+        <v>99.2678512807217</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>58.1558530613936</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>94.92839560200142</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238293</v>
       </c>
       <c r="W16" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890383</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>76.60007353871589</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>136.2749052347516</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.5257599066253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26317,19 +26317,19 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
@@ -26341,19 +26341,19 @@
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.5752058924</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058925</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363176</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69174.53632963455</v>
+        <v>69174.53632963459</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744317</v>
+        <v>8727.256391744342</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744308</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26451,13 +26451,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1047804.448569501</v>
+        <v>-1048095.055734347</v>
       </c>
       <c r="C6" t="n">
-        <v>38378.66578906431</v>
+        <v>38378.66578906434</v>
       </c>
       <c r="D6" t="n">
-        <v>-121636.7969589345</v>
+        <v>-121636.7969589346</v>
       </c>
       <c r="E6" t="n">
-        <v>-172939.6031237545</v>
+        <v>-172974.3410491903</v>
       </c>
       <c r="F6" t="n">
-        <v>152472.8586836007</v>
+        <v>152438.1207581648</v>
       </c>
       <c r="G6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.1207581649</v>
       </c>
       <c r="H6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.1207581648</v>
       </c>
       <c r="I6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.120758165</v>
       </c>
       <c r="J6" t="n">
-        <v>-15132.31912638196</v>
+        <v>-15167.05705181768</v>
       </c>
       <c r="K6" t="n">
-        <v>152472.8586836006</v>
+        <v>152438.1207581649</v>
       </c>
       <c r="L6" t="n">
-        <v>104178.8886754099</v>
+        <v>104144.1507499741</v>
       </c>
       <c r="M6" t="n">
-        <v>67417.83074808888</v>
+        <v>67383.09282265313</v>
       </c>
       <c r="N6" t="n">
-        <v>127528.6257035076</v>
+        <v>127528.6257035075</v>
       </c>
       <c r="O6" t="n">
+        <v>146956.3436971393</v>
+      </c>
+      <c r="P6" t="n">
         <v>146956.3436971392</v>
-      </c>
-      <c r="P6" t="n">
-        <v>146956.3436971391</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.26530918040248</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>363.0736821759808</v>
       </c>
     </row>
     <row r="3">
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>67.38760864751787</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>220.8448961797995</v>
+        <v>276.7138527418352</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>113.8719724520889</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>68.26437010159049</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>29.42344096330828</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.3736737338093</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>86.62328620570939</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.1993066650061</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28542,13 +28542,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.933366006583</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676403</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
